--- a/data/pre_notices/2023-05-26.xlsx
+++ b/data/pre_notices/2023-05-26.xlsx
@@ -464,41 +464,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>股票名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>公告标题</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>公告日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>公告发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>公告附件</t>
         </is>
@@ -530,7 +530,7 @@
           <t>2023-05-26 16:08:04:000</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://pdf.dfcfw.com/pdf/H2_AN202305261587288698_1.pdf?1685117288000.pdf</t>
         </is>
@@ -539,74 +539,101 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>祥源新材</t>
+          <t>宏昌科技</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>300980</t>
+          <t>301008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>祥源新材:2023年5月25日投资者关系活动记录表</t>
+          <t>宏昌科技:关于使用部分闲置募集资金及自有资金进行现金管理的进展公告</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-05-26 00:00:00</t>
+          <t>2023-05-30 00:00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-05-26 10:18:10:000</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305261587195959_1.pdf?1685096290000.pdf</t>
+          <t>2023-05-29 16:28:45:000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305291587334938_1.pdf?1685377738000.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>祥源新材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>300980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>祥源新材:2023年5月25日投资者关系活动记录表</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-05-26 10:18:10:000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305261587195959_1.pdf?1685096290000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>佳禾智能</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>300793</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>佳禾智能:关于特定股东减持时间过半未减持股份的公告</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2023-05-26 00:00:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-26 17:40:04:000</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://pdf.dfcfw.com/pdf/H2_AN202305261587292362_1.pdf?1685122833000.pdf</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -616,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,12 +686,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>祥源新材</t>
+          <t>宏昌科技</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>300980</t>
+          <t>301008</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -674,15 +701,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>祥源新材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>300980</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>佳禾智能</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>300793</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
